--- a/output/google_maps_data_SMP_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_SMP_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 374088</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.801904</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.801904</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.367808</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Yogyakarta/@-7.8019042,110.3497834,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785ea52aa5f:0xee00e209f4625d1f!8m2!3d-7.8019042!4d110.3678078!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1z0spcfxy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Yogyakarta/@-7.8019042,110.3497834,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785ea52aa5f:0xee00e209f4625d1f!8m2!3d-7.8019042!4d110.3678078!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1z0spcfxy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 372666</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.824596</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.824596</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.3758</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+10+Yogyakarta/@-7.824596,110.3577756,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a7b5d6f035:0x7682bddc7710ed59!8m2!3d-7.824596!4d110.3758!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rr_gct3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+10+Yogyakarta/@-7.824596,110.3577756,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a7b5d6f035:0x7682bddc7710ed59!8m2!3d-7.824596!4d110.3758!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rr_gct3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -597,25 +590,24 @@
           <t>(0274) 512169</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.78711</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.78711</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.375771</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+5+Yogyakarta/@-7.7871098,110.3577467,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582da7f06f5f:0xa66ad1e37a662747!8m2!3d-7.7871098!4d110.3757711!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm488p2s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -638,25 +630,24 @@
           <t>(0274) 512268</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.778411</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.778411</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.367273</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+6+Yogyakarta/@-7.7784114,110.349249,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5837775fdb61:0x4f3955ef79eb1bf4!8m2!3d-7.7784114!4d110.3672734!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11gzrfpy46?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+6+Yogyakarta/@-7.7784114,110.349249,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5837775fdb61:0x4f3955ef79eb1bf4!8m2!3d-7.7784114!4d110.3672734!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11gzrfpy46?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -683,25 +674,24 @@
           <t>(0274) 512912</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.791461</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.791461</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.376252</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+15+Yogyakarta/@-7.7914613,110.3582271,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582b72c1dccd:0x9d15c8ada25ecc8c!8m2!3d-7.7914613!4d110.3762515!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F120xp6yw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+15+Yogyakarta/@-7.7914613,110.3582271,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582b72c1dccd:0x9d15c8ada25ecc8c!8m2!3d-7.7914613!4d110.3762515!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F120xp6yw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -728,25 +718,24 @@
           <t>(0274) 371573</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.81959</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.81959</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.360242</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+13+Yogyakarta/@-7.8195899,110.3422176,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57b938e41be5:0xd19dd8c8dbb24cfe!8m2!3d-7.8195899!4d110.360242!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf4lsxs_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+13+Yogyakarta/@-7.8195899,110.3422176,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57b938e41be5:0xd19dd8c8dbb24cfe!8m2!3d-7.8195899!4d110.360242!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf4lsxs_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -769,25 +758,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.79531</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.79531</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.36458</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Yogyakarta/@-7.7953096,110.3465556,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58279026c9c1:0x5b0bc895493292f!8m2!3d-7.7953096!4d110.36458!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bbw_tg9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Yogyakarta/@-7.7953096,110.3465556,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58279026c9c1:0x5b0bc895493292f!8m2!3d-7.7953096!4d110.36458!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bbw_tg9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -814,25 +802,24 @@
           <t>(0274) 560232</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.777449</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.777449</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.375459</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Yogyakarta/@-7.7774489,110.3574344,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5835ab2a9a6d:0x41da88d6790bad69!8m2!3d-7.7774489!4d110.3754588!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1214fn7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Yogyakarta/@-7.7774489,110.3574344,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5835ab2a9a6d:0x41da88d6790bad69!8m2!3d-7.7774489!4d110.3754588!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1214fn7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -859,25 +846,24 @@
           <t>(0274) 513079</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.795145</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.795145</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.37292</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Yogyakarta/@-7.795145,110.3548958,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582a03f6d32f:0x95f026e339265706!8m2!3d-7.795145!4d110.3729202!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzklzmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Yogyakarta/@-7.795145,110.3548958,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582a03f6d32f:0x95f026e339265706!8m2!3d-7.795145!4d110.3729202!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzklzmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -900,25 +886,24 @@
           <t>(0274) 619229</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.792974</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.792974</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.353337</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+11+Yogyakarta/@-7.7929741,110.335313,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a581f3ffc1233:0x36db3e83d36b0540!8m2!3d-7.7929741!4d110.3533374!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11r89xwsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+11+Yogyakarta/@-7.7929741,110.335313,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a581f3ffc1233:0x36db3e83d36b0540!8m2!3d-7.7929741!4d110.3533374!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11r89xwsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -945,25 +930,24 @@
           <t>(0274) 516013</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.781792</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.781792</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.373141</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+8+Yogyakarta/@-7.781792,110.3551166,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5833db68911b:0x217c2b2ea03d998c!8m2!3d-7.781792!4d110.373141!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rr_4m6t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+8+Yogyakarta/@-7.781792,110.3551166,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5833db68911b:0x217c2b2ea03d998c!8m2!3d-7.781792!4d110.373141!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rr_4m6t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -990,25 +974,24 @@
           <t>(0274) 371168</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.819935</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.819935</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.397652</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+9+Yogyakarta/@-7.8199354,110.3796277,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57141e8c30e9:0x77a9719598ce9ad4!8m2!3d-7.8199354!4d110.3976521!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bv16nm_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+9+Yogyakarta/@-7.8199354,110.3796277,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57141e8c30e9:0x77a9719598ce9ad4!8m2!3d-7.8199354!4d110.3976521!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bv16nm_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1035,25 +1018,24 @@
           <t>(0274) 563012</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.786334</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.786334</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.360056</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+12+Yogyakarta/@-7.786334,110.3420316,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58234cf30bb5:0x6e52fd8afe3dff02!8m2!3d-7.786334!4d110.360056!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf6jh_zk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+12+Yogyakarta/@-7.786334,110.3420316,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58234cf30bb5:0x6e52fd8afe3dff02!8m2!3d-7.786334!4d110.360056!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf6jh_zk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1080,25 +1062,24 @@
           <t>(0274) 371032</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.811588</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.811588</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.359275</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+16+Yogyakarta/@-7.8115885,110.3412507,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57936c521009:0x8da724f7feb7817e!8m2!3d-7.8115885!4d110.3592751!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6_thc33?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+16+Yogyakarta/@-7.8115885,110.3412507,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57936c521009:0x8da724f7feb7817e!8m2!3d-7.8115885!4d110.3592751!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6_thc33?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1125,25 +1106,24 @@
           <t>0853-2950-0681</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.799738</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.799738</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.357993</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Yogyakarta/@-7.7997384,110.3399681,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578ba226a59f:0x928442cfeac9e7b9!8m2!3d-7.7997384!4d110.3579925!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1220459t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Yogyakarta/@-7.7997384,110.3399681,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578ba226a59f:0x928442cfeac9e7b9!8m2!3d-7.7997384!4d110.3579925!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1220459t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1170,25 +1150,24 @@
           <t>(0274) 561374</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>-7.791298</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.791298</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.350732</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+7+Yogyakarta/@-7.7997384,110.3399681,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5958ff5f53e5:0xe2d4baaff786fd09!8m2!3d-7.7912982!4d110.3507322!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11h01t1306?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+7+Yogyakarta/@-7.7997384,110.3399681,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5958ff5f53e5:0xe2d4baaff786fd09!8m2!3d-7.7912982!4d110.3507322!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11h01t1306?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1215,25 +1194,24 @@
           <t>(0274) 372401</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.818155</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.818155</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.359968</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Stella+Duce+2+Yogyakarta/@-7.8181547,110.3419438,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57be1a87603b:0x185b9a78942246c5!8m2!3d-7.8181547!4d110.3599682!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzpkdj8b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Stella+Duce+2+Yogyakarta/@-7.8181547,110.3419438,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57be1a87603b:0x185b9a78942246c5!8m2!3d-7.8181547!4d110.3599682!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzpkdj8b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1260,25 +1238,24 @@
           <t>(0274) 587550</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.786807</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.786807</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.359788</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+14+Yogyakarta/@-7.786807,110.3417636,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583caca8a271:0xb744b7d5ab15adf4!8m2!3d-7.786807!4d110.359788!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdz6hrcf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1301,25 +1278,24 @@
           <t>(0274) 587374</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.792983</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.792983</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.363426</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Stella+Duce+1+Yogyakarta/@-7.786807,110.3417636,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58270091858b:0x42d0383234603677!8m2!3d-7.7929829!4d110.3634257!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fm%2F012hcwb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Stella+Duce+1+Yogyakarta/@-7.786807,110.3417636,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58270091858b:0x42d0383234603677!8m2!3d-7.7929829!4d110.3634257!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fm%2F012hcwb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1346,25 +1322,24 @@
           <t>0895-3346-53636</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-7.805398</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.805398</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.37877</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Dewasa+Ibu+Pawiyatan+Tamansiswa+(SMP)/@-7.8053979,110.3607454,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5782aed2d4fb:0xa6df28cc106597b9!8m2!3d-7.8053979!4d110.3787698!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1sn4dx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Dewasa+Ibu+Pawiyatan+Tamansiswa+(SMP)/@-7.8053979,110.3607454,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5782aed2d4fb:0xa6df28cc106597b9!8m2!3d-7.8053979!4d110.3787698!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1sn4dx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1383,25 +1358,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.814461</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.814461</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.355068</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Islam+Yogyakarta/@-7.8144612,110.337044,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5794d6114fe3:0x34fe2331548bacc2!8m2!3d-7.8144612!4d110.3550684!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b_3g4jds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Islam+Yogyakarta/@-7.8144612,110.337044,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5794d6114fe3:0x34fe2331548bacc2!8m2!3d-7.8144612!4d110.3550684!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b_3g4jds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1428,25 +1402,24 @@
           <t>(0274) 563552</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.794531</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.794531</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.389897</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Pangudi+Luhur+1+Yogyakarta/@-7.7945309,110.3718729,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5762b2e93e05:0x5240dcfdcf01f41e!8m2!3d-7.7945309!4d110.3898973!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F121d1gxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Pangudi+Luhur+1+Yogyakarta/@-7.7945309,110.3718729,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5762b2e93e05:0x5240dcfdcf01f41e!8m2!3d-7.7945309!4d110.3898973!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F121d1gxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1473,25 +1446,24 @@
           <t>(0274) 370169</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.8243</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.8243</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.374071</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+9+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%99%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8243003,110.3560467,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a65fc802db:0x7ccfa5060dfaa81c!8m2!3d-7.8243003!4d110.3740711!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bbx10y_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+9+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%99%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8243003,110.3560467,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a65fc802db:0x7ccfa5060dfaa81c!8m2!3d-7.8243003!4d110.3740711!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bbx10y_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1518,25 +1490,24 @@
           <t>(0274) 587022</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-7.780042</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.780042</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.36716</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Taman+Dewasa+Jetis/@-7.7800423,110.3491356,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5837523dce57:0x72b239570d7b0d08!8m2!3d-7.7800423!4d110.36716!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5y1tss?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Taman+Dewasa+Jetis/@-7.7800423,110.3491356,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5837523dce57:0x72b239570d7b0d08!8m2!3d-7.7800423!4d110.36716!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5y1tss?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1563,25 +1534,24 @@
           <t>(0274) 519479</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.6</v>
+        <v>-7.79366</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.79366</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.383276</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Piri+1/@-7.7936596,110.3652517,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d5ba3c0a09:0xabf1e87f27e450c7!8m2!3d-7.7936596!4d110.3832761!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf3xzztc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Piri+1/@-7.7936596,110.3652517,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d5ba3c0a09:0xabf1e87f27e450c7!8m2!3d-7.7936596!4d110.3832761!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf3xzztc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1608,25 +1578,24 @@
           <t>(0274) 585446</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>-7.798327</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.798327</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.3901</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Muhammadiyah+8+Yogyakarta(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%A3%EA%A6%BC%EA%A6%AD%EA%A6%A5%EA%A6%A4%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE/@-7.7936596,110.3652517,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577cce604761:0x288987551668dbe5!8m2!3d-7.7983268!4d110.3900999!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11g_8bsxf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1649,25 +1618,24 @@
           <t>0858-7895-8029</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>-7.786147</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.786147</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.36977</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+IT+Masjid+Syuhada+Yogyakarta/@-7.7861472,110.3517454,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582e2d64dfef:0xad8190049c019b5!8m2!3d-7.7861472!4d110.3697698!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4fgpld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+IT+Masjid+Syuhada+Yogyakarta/@-7.7861472,110.3517454,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582e2d64dfef:0xad8190049c019b5!8m2!3d-7.7861472!4d110.3697698!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4fgpld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1694,25 +1662,24 @@
           <t>(0274) 419134</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.4</v>
+        <v>-7.814949</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.814949</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.388319</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Islam+Terpadu+Abu+Bakar+Yogyakarta/@-7.8149487,110.3702943,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5772c59086b9:0x21b5d52e992661a7!8m2!3d-7.8149487!4d110.3883187!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5nvrtb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1735,25 +1702,24 @@
           <t>0877-3071-0654</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.815278</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.815278</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.361602</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Taman+Dewasa+Kumendaman/@-7.8152785,110.3435773,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5796402657f9:0x122f1017448881d2!8m2!3d-7.8152785!4d110.3616017!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf2_p53m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1776,25 +1742,24 @@
           <t>(0274) 373211</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>-7.81199</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.81199</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.360469</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+5+Yogyakarta/@-7.8152785,110.3435773,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5794013fbb99:0x6402a3e97176b4!8m2!3d-7.8119904!4d110.3604685!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11btn16b1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+5+Yogyakarta/@-7.8152785,110.3435773,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5794013fbb99:0x6402a3e97176b4!8m2!3d-7.8119904!4d110.3604685!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11btn16b1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1821,25 +1786,24 @@
           <t>(0274) 553007</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.6</v>
+        <v>-7.795251</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.795251</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.3576</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+6+Yogyakarta/@-7.7952514,110.3395754,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582069955c73:0x7d6f38c9097a3e7!8m2!3d-7.7952514!4d110.3575998!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F119v_k_f9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+6+Yogyakarta/@-7.7952514,110.3395754,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582069955c73:0x7d6f38c9097a3e7!8m2!3d-7.7952514!4d110.3575998!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F119v_k_f9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1866,25 +1830,24 @@
           <t>(0274) 587085</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>-7.795719</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.795719</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.378125</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Kanisius+Gayam/@-7.7957191,110.3601005,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5780060a513d:0x5f511242262af0c8!8m2!3d-7.7957191!4d110.3781249!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_cpy93?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1907,25 +1870,24 @@
           <t>(0274) 516811</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.796727</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.796727</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.378651</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Budya+Wacana+Yogyakarta/@-7.7957191,110.3601005,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577f8f737819:0x5d7b6aeae5da95e7!8m2!3d-7.7967273!4d110.3786506!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bbw_mz6r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1948,25 +1910,24 @@
           <t>(0274) 587182</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.6</v>
+        <v>-7.77644</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.77644</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.375375</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Bopkri+3+Yogyakarta/@-7.7764405,110.3573509,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5835a02bfbc7:0x2285cfec9a846292!8m2!3d-7.7764405!4d110.3753753!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5npkvg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Bopkri+3+Yogyakarta/@-7.7764405,110.3573509,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5835a02bfbc7:0x2285cfec9a846292!8m2!3d-7.7764405!4d110.3753753!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5npkvg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1993,25 +1954,24 @@
           <t>(0274) 375158</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.6</v>
+        <v>-7.802751</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.802751</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.351701</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Yogyakarta/@-7.8027509,110.3336764,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f3bab3ca97:0xf0aeddd750a2a7d2!8m2!3d-7.8027509!4d110.3517008!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf2g9432?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Yogyakarta/@-7.8027509,110.3336764,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f3bab3ca97:0xf0aeddd750a2a7d2!8m2!3d-7.8027509!4d110.3517008!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf2g9432?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -2038,25 +1998,24 @@
           <t>(0274) 554623</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.798904</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.798904</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.379988</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+4+Yogyakarta/@-7.7989045,110.3619633,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577f363bab45:0xf195004086f9399f!8m2!3d-7.7989045!4d110.3799877!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf01pnv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+4+Yogyakarta/@-7.7989045,110.3619633,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577f363bab45:0xf195004086f9399f!8m2!3d-7.7989045!4d110.3799877!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf01pnv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2079,25 +2038,24 @@
           <t>(0274) 372975</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.8</v>
+        <v>-7.802549</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.802549</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.368924</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Maria+Immaculata+Marsudirini+Yogyakarta/@-7.8025489,110.3508995,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785b1a7c64b:0x144afd54d71a713e!8m2!3d-7.8025489!4d110.3689239!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11r7rhrv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Maria+Immaculata+Marsudirini+Yogyakarta/@-7.8025489,110.3508995,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785b1a7c64b:0x144afd54d71a713e!8m2!3d-7.8025489!4d110.3689239!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11r7rhrv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2124,25 +2082,24 @@
           <t>(0274) 514807</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.6</v>
+        <v>-7.799745</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.799745</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.382455</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Yogyakarta/@-7.799745,110.3644306,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577ec35200fd:0x9cb23360581dfdf!8m2!3d-7.799745!4d110.382455!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rxdlcgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Yogyakarta/@-7.799745,110.3644306,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577ec35200fd:0x9cb23360581dfdf!8m2!3d-7.799745!4d110.382455!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rxdlcgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2165,25 +2122,24 @@
           <t>(0274) 378752</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>-7.822755</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.822755</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.383682</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Piri+2+Yogyakarta/@-7.822755,110.3656576,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57093afbfdb5:0xa2c85d1a2bb5b15f!8m2!3d-7.822755!4d110.383682!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6nkd1wx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Piri+2+Yogyakarta/@-7.822755,110.3656576,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57093afbfdb5:0xa2c85d1a2bb5b15f!8m2!3d-7.822755!4d110.383682!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6nkd1wx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2206,25 +2162,24 @@
           <t>0813-2987-1102</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.806641</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.806641</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.351083</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Bopkri+5+Yogyakarta/@-7.806641,110.3330582,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f249227ec3:0x215b6eee143413e0!8m2!3d-7.806641!4d110.3510826!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vZFhKbVRUZDNSUkFC4AEA-gEECAAQKw!16s%2Fg%2F1pzw4vzj8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Bopkri+5+Yogyakarta/@-7.806641,110.3330582,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f249227ec3:0x215b6eee143413e0!8m2!3d-7.806641!4d110.3510826!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vZFhKbVRUZDNSUkFC4AEA-gEECAAQKw!16s%2Fg%2F1pzw4vzj8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2247,25 +2202,24 @@
           <t>(0274) 4399473</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.8</v>
+        <v>-7.829707</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.829707</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.377294</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Perintis+Yogyakarta(+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A5%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B6%EA%A6%B1%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8297067,110.35927,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a83fdaa661:0x9d7b162d41af405c!8m2!3d-7.8297067!4d110.3772944!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJoTUVwRFFYbG5SUkFC4AEA-gEECAAQHQ!16s%2Fg%2F11bv3rx2c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Perintis+Yogyakarta(+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A5%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B6%EA%A6%B1%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8297067,110.35927,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a83fdaa661:0x9d7b162d41af405c!8m2!3d-7.8297067!4d110.3772944!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJoTUVwRFFYbG5SUkFC4AEA-gEECAAQHQ!16s%2Fg%2F11bv3rx2c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2292,25 +2246,24 @@
           <t>(0274) 560412</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>-7.77979</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.77979</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.378616</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+10+Yogyakarta/@-7.7797899,110.360592,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583356c31ced:0x68314438f52ce8a9!8m2!3d-7.7797899!4d110.3786164!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TTA1bE4yNVJSUkFC4AEA-gEECAAQJg!16s%2Fg%2F1hm2ry3mg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+10+Yogyakarta/@-7.7797899,110.360592,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583356c31ced:0x68314438f52ce8a9!8m2!3d-7.7797899!4d110.3786164!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TTA1bE4yNVJSUkFC4AEA-gEECAAQJg!16s%2Fg%2F1hm2ry3mg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2333,25 +2286,24 @@
           <t>(0274) 378585</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.3</v>
+        <v>-7.825051</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.825051</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.361934</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Ali+Maksum/@-7.825051,110.3439096,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57ba4ec738fd:0x296c256d684e0424!8m2!3d-7.825051!4d110.361934!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6WDBwZmEzVjNSUkFC4AEA-gEECAAQOA!16s%2Fg%2F11b7kfzz2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Ali+Maksum/@-7.825051,110.3439096,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57ba4ec738fd:0x296c256d684e0424!8m2!3d-7.825051!4d110.361934!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6WDBwZmEzVjNSUkFC4AEA-gEECAAQOA!16s%2Fg%2F11b7kfzz2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2374,25 +2326,24 @@
           <t>(0274) 5021033</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.9</v>
+        <v>-7.799627</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.799627</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.38726</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPIT+ABU+BAKAR+FULLDAY+SCHOOL+YOGYAKARTA/@-7.7996273,110.369236,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57839040526d:0xc91bf05b66e33f83!8m2!3d-7.7996273!4d110.3872604!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlFkMTlUWWpkM1JSQULgAQD6AQQIPBBB!16s%2Fg%2F11f6y4z07_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPIT+ABU+BAKAR+FULLDAY+SCHOOL+YOGYAKARTA/@-7.7996273,110.369236,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57839040526d:0xc91bf05b66e33f83!8m2!3d-7.7996273!4d110.3872604!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlFkMTlUWWpkM1JSQULgAQD6AQQIPBBB!16s%2Fg%2F11f6y4z07_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -2415,25 +2366,24 @@
           <t>(0274) 563860</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.7</v>
+        <v>-7.782339</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.782339</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.386916</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Institut+Indonesia+Yogyakarta/@-7.7823394,110.3688916,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59ce56ec69ab:0xd21e799dd7ca5bd4!8m2!3d-7.7823394!4d110.386916!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1s9sbp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Institut+Indonesia+Yogyakarta/@-7.7823394,110.3688916,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59ce56ec69ab:0xd21e799dd7ca5bd4!8m2!3d-7.7823394!4d110.386916!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1s9sbp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2460,25 +2410,24 @@
           <t>(0274) 373190</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.5</v>
+        <v>-7.830461</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.830461</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.404156</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+7+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%97%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8304609,110.3861313,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57186fffffff:0xe01c9d08c46c6117!8m2!3d-7.8304609!4d110.4041557!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RYlRSUFlYUkJSUkFC4AEA-gEECAAQKw!16s%2Fg%2F1pzwmdhxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+7+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%97%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8304609,110.3861313,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57186fffffff:0xe01c9d08c46c6117!8m2!3d-7.8304609!4d110.4041557!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RYlRSUFlYUkJSUkFC4AEA-gEECAAQKw!16s%2Fg%2F1pzwmdhxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2505,25 +2454,24 @@
           <t>(0274) 371950</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.7</v>
+        <v>-7.827311</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.827311</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.387693</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+BIAS+Yogyakarta/@-7.8273105,110.3696685,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57050ba9642d:0x849d350cbd15796c!8m2!3d-7.8273105!4d110.3876929!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1YzAxVU1GRlJFQUXgAQD6AQQIABAm!16s%2Fg%2F11g6sl3sgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+BIAS+Yogyakarta/@-7.8273105,110.3696685,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57050ba9642d:0x849d350cbd15796c!8m2!3d-7.8273105!4d110.3876929!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1YzAxVU1GRlJFQUXgAQD6AQQIABAm!16s%2Fg%2F11g6sl3sgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2546,25 +2494,24 @@
           <t>(0274) 585680</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.6</v>
+        <v>-7.769682</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.769682</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.35486</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Pertama+Kristen+Kalam+Kudus+Yogyakarta/@-7.7696825,110.3368354,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58420a86fcd1:0xdd78256f1a696bc5!8m2!3d-7.7696825!4d110.3548598!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJTUVsTVdubDNSUkFC4AEA-gEFCI0CEEE!16s%2Fg%2F11g6_d8r3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Pertama+Kristen+Kalam+Kudus+Yogyakarta/@-7.7696825,110.3368354,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a58420a86fcd1:0xdd78256f1a696bc5!8m2!3d-7.7696825!4d110.3548598!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJTUVsTVdubDNSUkFC4AEA-gEFCI0CEEE!16s%2Fg%2F11g6_d8r3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2587,25 +2534,24 @@
           <t>(0274) 582458</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.7</v>
+        <v>-7.794605</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.794605</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.364603</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Pembangunan+Ma'arif/@-7.7946049,110.3465788,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5826feabc8d5:0x419115d7273c9901!8m2!3d-7.7946049!4d110.3646032!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0xY0RsVE1tNUJSUkFC4AEA-gEFCK0BEDs!16s%2Fg%2F1pzvkbwcl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Pembangunan+Ma'arif/@-7.7946049,110.3465788,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5826feabc8d5:0x419115d7273c9901!8m2!3d-7.7946049!4d110.3646032!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0xY0RsVE1tNUJSUkFC4AEA-gEFCK0BEDs!16s%2Fg%2F1pzvkbwcl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2628,25 +2574,24 @@
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.9</v>
+        <v>-7.801643</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.801643</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.372285</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kalyca+Montessori+School/@-7.7946049,110.3465788,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57840ea591df:0x73f77341f403e97e!8m2!3d-7.801643!4d110.372285!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk1OaTFpYlVoQkVBReABAPoBBAgAEC4!16s%2Fg%2F1hm6j91c1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kalyca+Montessori+School/@-7.7946049,110.3465788,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57840ea591df:0x73f77341f403e97e!8m2!3d-7.801643!4d110.372285!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk1OaTFpYlVoQkVBReABAPoBBAgAEC4!16s%2Fg%2F1hm6j91c1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2669,25 +2614,24 @@
           <t>0857-4123-4534</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.1</v>
+        <v>-7.808069</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.808069</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.39339</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Islam+Terpadu+Al+Khairaat/@-7.808069,110.3753659,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a576faca0d96f:0x16d33c423117ecf8!8m2!3d-7.808069!4d110.3933903!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5VYVc5TVMwRm5FQUXgAQD6AQQIJhBA!16s%2Fg%2F11bzs32r68?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Islam+Terpadu+Al+Khairaat/@-7.808069,110.3753659,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a576faca0d96f:0x16d33c423117ecf8!8m2!3d-7.808069!4d110.3933903!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5VYVc5TVMwRm5FQUXgAQD6AQQIJhBA!16s%2Fg%2F11bzs32r68?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2706,25 +2650,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>-7.797587</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.797587</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.389741</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Bopkri+10+Yogyakarta/@-7.808069,110.3753659,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a572a8006a87f:0xe5980b6296948608!8m2!3d-7.7975874!4d110.389741!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhNell5WW5OblJSQULgAQD6AQQIABAV!16s%2Fg%2F11j965s1fz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Bopkri+10+Yogyakarta/@-7.808069,110.3753659,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a572a8006a87f:0xe5980b6296948608!8m2!3d-7.7975874!4d110.389741!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhNell5WW5OblJSQULgAQD6AQQIABAV!16s%2Fg%2F11j965s1fz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2743,25 +2686,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.7</v>
+        <v>-7.78465</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.78465</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.355139</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Gotong+Royong/@-7.7846501,110.3371147,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583d67109485:0xd3078f94c97f99b2!8m2!3d-7.7846501!4d110.3551391!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYTVRjMlRXdG5SUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11dxs2pd30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Gotong+Royong/@-7.7846501,110.3371147,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583d67109485:0xd3078f94c97f99b2!8m2!3d-7.7846501!4d110.3551391!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYTVRjMlRXdG5SUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11dxs2pd30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2784,25 +2726,24 @@
           <t>(0274) 587917</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F55" t="n">
-        <v>3.7</v>
+        <v>-7.784495</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.784495</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.365491</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+17+I+Yogyakarta/@-7.784495,110.3474663,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583abfad4ce1:0x24e27b23fff01abf!8m2!3d-7.784495!4d110.3654907!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pYmt0dGJsWm5FQUXgAQD6AQQIABAa!16s%2Fg%2F11bbx0xz4f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+17+I+Yogyakarta/@-7.784495,110.3474663,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583abfad4ce1:0x24e27b23fff01abf!8m2!3d-7.784495!4d110.3654907!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pYmt0dGJsWm5FQUXgAQD6AQQIABAa!16s%2Fg%2F11bbx0xz4f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2829,25 +2770,24 @@
           <t>(0274) 373211</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.8</v>
+        <v>-7.812924</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.812924</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.361788</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+5+Unit+2/@-7.812924,110.3437633,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5796bde69ec9:0x29f961cf3e11448b!8m2!3d-7.812924!4d110.3617877!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11fxfr1hrv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+5+Unit+2/@-7.812924,110.3437633,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5796bde69ec9:0x29f961cf3e11448b!8m2!3d-7.812924!4d110.3617877!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11fxfr1hrv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2870,25 +2810,24 @@
           <t>(0274) 6645702</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.824376</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.824376</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.400161</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Perak+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%AB%EA%A6%8F%EA%A7%80/@-7.8243757,110.3821362,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5717909d0fc3:0xb31a51f0a6653d5c!8m2!3d-7.8243757!4d110.4001606!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5pfp99?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Perak+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%AB%EA%A6%8F%EA%A7%80/@-7.8243757,110.3821362,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5717909d0fc3:0xb31a51f0a6653d5c!8m2!3d-7.8243757!4d110.4001606!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5pfp99?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2911,25 +2850,24 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.816489</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.816489</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.355784</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Labschool+UNY/@-7.8164892,110.3377591,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57001926689b:0x723d2bbe0583ffb0!8m2!3d-7.8164892!4d110.3557835!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11y6z3bb_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Labschool+UNY/@-7.8164892,110.3377591,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57001926689b:0x723d2bbe0583ffb0!8m2!3d-7.8164892!4d110.3557835!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11y6z3bb_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2952,25 +2890,24 @@
           <t>(0274) 417124</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.3</v>
+        <v>-7.813331</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.813331</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.373064</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Budi+Luhur+Yogyakarta/@-7.8133313,110.3550399,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a579ed37ba353:0x53e5113978cbd33a!8m2!3d-7.8133313!4d110.3730643!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNhSFZMZEdoblJSQULgAQD6AQQIABBH!16s%2Fg%2F1hm5q6dcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Budi+Luhur+Yogyakarta/@-7.8133313,110.3550399,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a579ed37ba353:0x53e5113978cbd33a!8m2!3d-7.8133313!4d110.3730643!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNhSFZMZEdoblJSQULgAQD6AQQIABBH!16s%2Fg%2F1hm5q6dcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2997,25 +2934,24 @@
           <t>(0274) 583973</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.9</v>
+        <v>-7.792024</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.792024</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.389839</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joannes+Bosco+Junior+High+School/@-7.7920244,110.3718145,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d77eee1d35:0xdda3ca2e565a3cc5!8m2!3d-7.7920244!4d110.3898389!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oT1ZsUVIxVm5FQUXgAQD6AQQIABA2!16s%2Fg%2F11bwylrs_f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joannes+Bosco+Junior+High+School/@-7.7920244,110.3718145,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d77eee1d35:0xdda3ca2e565a3cc5!8m2!3d-7.7920244!4d110.3898389!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oT1ZsUVIxVm5FQUXgAQD6AQQIABA2!16s%2Fg%2F11bwylrs_f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3034,25 +2970,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F61" t="n">
-        <v>3.7</v>
+        <v>-7.817753</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.817753</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.394677</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Swasta+Budaya/@-7.8177532,110.3766521,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5713a06b59ed:0x418b5d639feaba28!8m2!3d-7.8177532!4d110.3946765!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6bs_hzq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Swasta+Budaya/@-7.8177532,110.3766521,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5713a06b59ed:0x418b5d639feaba28!8m2!3d-7.8177532!4d110.3946765!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6bs_hzq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3072,22 +3007,21 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>-7.79558</v>
+      </c>
       <c r="G62" t="n">
-        <v>-7.79558</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.36949</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP/@-7.7955798,110.3514652,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d07589f521:0xb4e913109d435be6!8m2!3d-7.7955798!4d110.3694896!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11l1qk09tb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3110,25 +3044,24 @@
           <t>(0274) 375146</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.7</v>
+        <v>-7.807542</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.807542</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.370686</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.7955798,110.3514652,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTJhM1pYVkVWM0VBReABAPoBBAguEDE!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.7955798,110.3514652,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTJhM1pYVkVWM0VBReABAPoBBAguEDE!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3147,25 +3080,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>-7.799259</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.799259</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.382218</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/9E+ni+boss/@-7.7992591,110.3641932,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5700013f20c7:0x59a32fd489b9007c!8m2!3d-7.7992591!4d110.3822176!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pYmxCdFRVOUJFQUXgAQD6AQQIABA-!16s%2Fg%2F11w4dstfsy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/9E+ni+boss/@-7.7992591,110.3641932,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5700013f20c7:0x59a32fd489b9007c!8m2!3d-7.7992591!4d110.3822176!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pYmxCdFRVOUJFQUXgAQD6AQQIABA-!16s%2Fg%2F11w4dstfsy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3189,22 +3121,21 @@
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>-7.802099</v>
+      </c>
       <c r="G65" t="n">
-        <v>-7.802099</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.367919</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dharma+Wanita+SMP+N+2/@-7.8020991,110.3498946,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785ebcd8187:0x6a5c236a06adf5fd!8m2!3d-7.8020991!4d110.367919!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11b620c1tx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3223,25 +3154,24 @@
           <t>(0274) 378266</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.3</v>
+        <v>-7.806455</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.806455</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.350859</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+Bopkri+3+Yogyakarta/@-7.8064554,110.3328346,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f3ad457d9f:0xb4d3ffa8f1e0ffee!8m2!3d-7.8064554!4d110.350859!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUk1OM1JxTkhGQlJSQULgAQD6AQQIABAy!16s%2Fg%2F1hf0j95sw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+Bopkri+3+Yogyakarta/@-7.8064554,110.3328346,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f3ad457d9f:0xb4d3ffa8f1e0ffee!8m2!3d-7.8064554!4d110.350859!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUk1OM1JxTkhGQlJSQULgAQD6AQQIABAy!16s%2Fg%2F1hf0j95sw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3268,25 +3198,24 @@
           <t>(0274) 373122</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.8</v>
+        <v>-7.807552</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.807552</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.351427</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Mu'allimin+Muhammadiyah+Yogyakarta/@-7.8064554,110.3328346,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a466abe657:0x9629a956723b4d10!8m2!3d-7.8075522!4d110.351427!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTTVdKcE1rUkJFQUXgAQD6AQQIABAi!16s%2Fg%2F11kpkvs09m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Mu'allimin+Muhammadiyah+Yogyakarta/@-7.8064554,110.3328346,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a466abe657:0x9629a956723b4d10!8m2!3d-7.8075522!4d110.351427!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTTVdKcE1rUkJFQUXgAQD6AQQIABAi!16s%2Fg%2F11kpkvs09m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3313,25 +3242,24 @@
           <t>(0274) 515359</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.6</v>
+        <v>-7.787166</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.787166</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.377731</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BOPKRI+1+Yogyakarta/@-7.787166,110.3597066,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582d15c6b895:0x483d905b35aaf1ea!8m2!3d-7.787166!4d110.377731!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxPVnBZTkRkblJSQULgAQD6AQQIGhAY!16s%2Fg%2F1td80pn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BOPKRI+1+Yogyakarta/@-7.787166,110.3597066,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582d15c6b895:0x483d905b35aaf1ea!8m2!3d-7.787166!4d110.377731!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxPVnBZTkRkblJSQULgAQD6AQQIGhAY!16s%2Fg%2F1td80pn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3351,22 +3279,21 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.793644</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.793644</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.383253</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP/@-7.787166,110.3597066,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59094959e147:0x6dcdbf9b33247adc!8m2!3d-7.7936441!4d110.3832529!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11kj215y30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3389,25 +3316,24 @@
           <t>(0274) 561217</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.3</v>
+        <v>-7.792124</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.792124</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.390352</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Joannes+Bosco/@-7.7921239,110.372328,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d77ef73171:0xfbedd533b98cf211!8m2!3d-7.7921239!4d110.3903524!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGRsOUhMVlpuRUFF4AEA-gEECAAQNQ!16s%2Fg%2F1230v9w5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Joannes+Bosco/@-7.7921239,110.372328,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d77ef73171:0xfbedd533b98cf211!8m2!3d-7.7921239!4d110.3903524!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGRsOUhMVlpuRUFF4AEA-gEECAAQNQ!16s%2Fg%2F1230v9w5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3434,25 +3360,24 @@
           <t>(0274) 412236</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F71" t="n">
-        <v>3.6</v>
+        <v>-7.8217</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.8217</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.3741</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Muhammadiyah+Karangkajen/@-7.8216997,110.3560759,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a6c9dc0ae3:0xef9a635bb1f3db13!8m2!3d-7.8216997!4d110.3741003!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU42ZVU1bWVYUkJSUkFC4AEA-gEECAAQDw!16s%2Fg%2F1hm3lg3km?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Muhammadiyah+Karangkajen/@-7.8216997,110.3560759,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a6c9dc0ae3:0xef9a635bb1f3db13!8m2!3d-7.8216997!4d110.3741003!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQ1taWRkbGVfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU42ZVU1bWVYUkJSUkFC4AEA-gEECAAQDw!16s%2Fg%2F1hm3lg3km?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3472,22 +3397,21 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-7.798904</v>
+      </c>
       <c r="G72" t="n">
-        <v>-7.798904</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.379988</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%AB%EA%A7%80%EA%A6%B1%EA%A6%B6%EA%A6%B2%EA%A6%B6%EA%A6%A3%EA%A6%AA%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%AD%EA%A6%83/@-7.7989045,110.3619633,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5722929e8f45:0xb9296762f396b009!8m2!3d-7.7989045!4d110.3799877!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11sj6lhvy6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3506,25 +3430,24 @@
           <t>(0274) 385975</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.7</v>
+        <v>-7.802407</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.802407</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Pangudi+Luhur+I+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%A3%EA%A6%BA%EA%A7%88%EA%A6%A5%EA%A6%94%EA%A6%B8%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%B8%EA%A6%B2%EA%A6%B8%EA%A6%82%EA%A7%87%EA%A7%91%EA%A7%87/@-7.8024068,110.3467324,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578f5fb2edb1:0xb4127fd67e8bd4d0!8m2!3d-7.8024068!4d110.3647568!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2EyVlFaVmRCRUFF4AEA-gEFCOABEC4!16s%2Fg%2F1hc7_0kgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Pangudi+Luhur+I+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%A3%EA%A6%BA%EA%A7%88%EA%A6%A5%EA%A6%94%EA%A6%B8%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%B8%EA%A6%B2%EA%A6%B8%EA%A6%82%EA%A7%87%EA%A7%91%EA%A7%87/@-7.8024068,110.3467324,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578f5fb2edb1:0xb4127fd67e8bd4d0!8m2!3d-7.8024068!4d110.3647568!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2EyVlFaVmRCRUFF4AEA-gEFCOABEC4!16s%2Fg%2F1hc7_0kgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3551,25 +3474,24 @@
           <t>(0274) 540937</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.5</v>
+        <v>-7.799323</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.799323</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.382921</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+2+Yogyakarta/@-7.7993235,110.3648963,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577ec548b377:0xf553908594b7803!8m2!3d-7.7993235!4d110.3829207!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhSFEzU0hoUlJSQULgAQD6AQQIABAx!16s%2Fg%2F1hm3zzj2f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+2+Yogyakarta/@-7.7993235,110.3648963,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577ec548b377:0xf553908594b7803!8m2!3d-7.7993235!4d110.3829207!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhSFEzU0hoUlJSQULgAQD6AQQIABAx!16s%2Fg%2F1hm3zzj2f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3596,25 +3518,24 @@
           <t>(0274) 513129</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.8</v>
+        <v>-7.79548</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.79548</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.378634</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Stella+Duce+2+Yogyakarta/@-7.7993235,110.3648963,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57cf0c014bdf:0x6b72eee556b6fdca!8m2!3d-7.7954803!4d110.3786337!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnRPVFF6TFMxblJSQULgAQD6AQQIABBE!16s%2Fg%2F1hm1_ng0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Stella+Duce+2+Yogyakarta/@-7.7993235,110.3648963,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57cf0c014bdf:0x6b72eee556b6fdca!8m2!3d-7.7954803!4d110.3786337!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnRPVFF6TFMxblJSQULgAQD6AQQIABBE!16s%2Fg%2F1hm1_ng0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -3641,25 +3562,24 @@
           <t>(0274) 373801</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.3</v>
+        <v>-7.801557</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.801557</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.351523</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+7+Yogyakarta/@-7.8015572,110.333499,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f388f4ebb5:0xc2865fb2239f1611!8m2!3d-7.8015572!4d110.3515234!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlliSEI1YWpkUlJSQULgAQD6AQQIABBE!16s%2Fg%2F1hdz97n3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+7+Yogyakarta/@-7.8015572,110.333499,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f388f4ebb5:0xc2865fb2239f1611!8m2!3d-7.8015572!4d110.3515234!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlliSEI1YWpkUlJSQULgAQD6AQQIABBE!16s%2Fg%2F1hdz97n3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3682,25 +3602,24 @@
           <t>(0274) 518446</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F77" t="n">
-        <v>3.9</v>
+        <v>-7.781595</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.781595</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.366021</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bhinneka+Tunggal+Ika/@-7.781595,110.3479966,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583a72440955:0x8a7b4189289b312a!8m2!3d-7.781595!4d110.366021!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXROelJETVcxQlJSQULgAQD6AQQIABAt!16s%2Fg%2F11b6cgddbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bhinneka+Tunggal+Ika/@-7.781595,110.3479966,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583a72440955:0x8a7b4189289b312a!8m2!3d-7.781595!4d110.366021!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXROelJETVcxQlJSQULgAQD6AQQIABAt!16s%2Fg%2F11b6cgddbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3723,25 +3642,24 @@
           <t>(0274) 518446</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F78" t="n">
-        <v>3.9</v>
+        <v>-7.810798</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.810798</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.355701</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2VYUkRNRTFCRUFF4AEA-gEECAAQOg!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2VYUkRNRTFCRUFF4AEA-gEECAAQOg!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3768,25 +3686,24 @@
           <t>(0274) 370310</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.9</v>
+        <v>-7.802219</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.802219</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.366639</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRhV05UY1ZKQkVBReABAPoBBAgAEEU!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRhV05UY1ZKQkVBReABAPoBBAgAEEU!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3813,25 +3730,24 @@
           <t>(0274) 562292</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.2</v>
+        <v>-7.799301</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.799301</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.357902</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Muhammadiyah+5+Yogyakarta/@-7.7993009,110.3398777,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57889ec1f61b:0xb44933911710156!8m2!3d-7.7993009!4d110.3579021!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRNM0oxV0RGM1JSQULgAQD6AQQIHBAl!16s%2Fg%2F11cftyxmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3847,22 +3763,21 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>-7.813673</v>
+      </c>
       <c r="G81" t="n">
-        <v>-7.813673</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.387884</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Asrama+Abu+Ubaidah+SMP+IT+Abu+Bakar+Yogyakarta/@-7.8136727,110.3698593,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a570b1162c601:0x7e8cb4f018f8bc88!8m2!3d-7.8136727!4d110.3878837!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11l5n9nnxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3881,25 +3796,24 @@
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>-7.787092</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.787092</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.375765</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PAWITIKRA/@-7.7870923,110.3577407,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59af52b752c9:0xaa5239a92ddd5a0c!8m2!3d-7.7870923!4d110.3757651!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11g0hz3y2y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PAWITIKRA/@-7.7870923,110.3577407,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59af52b752c9:0xaa5239a92ddd5a0c!8m2!3d-7.7870923!4d110.3757651!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11g0hz3y2y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3926,25 +3840,24 @@
           <t>(0274) 377740</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.7</v>
+        <v>-7.813797</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.813797</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.358629</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Negeri+7+Yogyakarta/@-7.8137975,110.3406049,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5794390209d7:0x6ce98bf02968b155!8m2!3d-7.8137975!4d110.3586293!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmxOblJFWVZOUkVBReABAPoBBAgAEEk!16s%2Fg%2F120l32q1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3963,25 +3876,24 @@
           <t>(0274) 380782</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.6</v>
+        <v>-7.814551</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.814551</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.383446</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+Katolik+Sang+Timur+Yogyakarta/@-7.814551,110.3654216,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5774bbb956eb:0x96984b40f4dd05e1!8m2!3d-7.814551!4d110.383446!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhOWFpQUzFObkVBReABAPoBBAgAEBg!16s%2Fg%2F1hd_1mnrm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+Katolik+Sang+Timur+Yogyakarta/@-7.814551,110.3654216,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5774bbb956eb:0x96984b40f4dd05e1!8m2!3d-7.814551!4d110.383446!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhOWFpQUzFObkVBReABAPoBBAgAEBg!16s%2Fg%2F1hd_1mnrm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -4004,25 +3916,24 @@
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F85" t="n">
-        <v>3.8</v>
+        <v>-7.786583</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.786583</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.377635</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yayasan+Bopkri+Yogyakarta/@-7.7865827,110.3596106,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582d38574c13:0xe235027b6c7d0269!8m2!3d-7.7865827!4d110.377635!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxYMGxYUldKUkVBReABAPoBBAgAEEM!16s%2Fg%2F11bbygvg1h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yayasan+Bopkri+Yogyakarta/@-7.7865827,110.3596106,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582d38574c13:0xe235027b6c7d0269!8m2!3d-7.7865827!4d110.377635!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxYMGxYUldKUkVBReABAPoBBAgAEEM!16s%2Fg%2F11bbygvg1h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4049,25 +3960,24 @@
           <t>(0274) 387878</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.7</v>
+        <v>-7.801935</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.801935</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.36861</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%82%EA%A6%B1%EA%A6%B8%EA%A6%A3%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0+SD+Marsudirini+Yogyakarta/@-7.801935,110.3505856,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785c697965d:0xaa802b2d2dd712c8!8m2!3d-7.801935!4d110.36861!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONmNWOHRXVVJuRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11r8flp9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%82%EA%A6%B1%EA%A6%B8%EA%A6%A3%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0+SD+Marsudirini+Yogyakarta/@-7.801935,110.3505856,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785c697965d:0xaa802b2d2dd712c8!8m2!3d-7.801935!4d110.36861!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONmNWOHRXVVJuRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11r8flp9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -4094,25 +4004,24 @@
           <t>(0274) 387878</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.7</v>
+        <v>-7.820431</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.820431</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.35993</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+4+Yogyakarta/@-7.820431,110.3419056,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57be92544de3:0x2ca7740aad52a399!8m2!3d-7.820431!4d110.35993!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObExYVjJNSFpuUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11bbx0k31q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+4+Yogyakarta/@-7.820431,110.3419056,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57be92544de3:0x2ca7740aad52a399!8m2!3d-7.820431!4d110.35993!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObExYVjJNSFpuUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11bbx0k31q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4139,25 +4048,24 @@
           <t>(0274) 384386</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.7</v>
+        <v>-7.804354</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.804354</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.362078</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Kauman+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%8F%EA%A6%BB%EA%A6%B4%EA%A6%A9%EA%A6%A4%EA%A7%80)/@-7.8043538,110.3440536,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578e67102527:0x4be291faded46b27!8m2!3d-7.8043538!4d110.362078!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWE16VlBNVXRCRUFF4AEA-gEECAAQNA!16s%2Fg%2F1hm55qrkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Kauman+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%8F%EA%A6%BB%EA%A6%B4%EA%A6%A9%EA%A6%A4%EA%A7%80)/@-7.8043538,110.3440536,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578e67102527:0x4be291faded46b27!8m2!3d-7.8043538!4d110.362078!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWE16VlBNVXRCRUFF4AEA-gEECAAQNA!16s%2Fg%2F1hm55qrkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4184,25 +4092,24 @@
           <t>(0274) 512856</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.7</v>
+        <v>-7.786528</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.786528</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.373616</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9jblV0T1VaUkVBReABAPoBBAg9EEg!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9jblV0T1VaUkVBReABAPoBBAg9EEg!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -4225,25 +4132,24 @@
           <t>(0274) 370305</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.3</v>
+        <v>-7.802922</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.802922</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.366911</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+Gajah+Mada/@-7.8029219,110.3488861,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582970000001:0x5f9c13fbe1eaa15!8m2!3d-7.8029219!4d110.3669105!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdGJFMVlkWGRSUlJBQuABAPoBBAgAECU!16s%2Fg%2F1hdzc19j4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+Gajah+Mada/@-7.8029219,110.3488861,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582970000001:0x5f9c13fbe1eaa15!8m2!3d-7.8029219!4d110.3669105!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdGJFMVlkWGRSUlJBQuABAPoBBAgAECU!16s%2Fg%2F1hdzc19j4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4266,25 +4172,24 @@
           <t>(0274) 376901</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.6</v>
+        <v>-7.806855</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.806855</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.350416</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+3+Yogyakarta/@-7.8068548,110.3323919,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f3a37ea0f3:0xb2e0b9cb91c1eb9f!8m2!3d-7.8068548!4d110.3504163!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhiVXhtUlZKbkVBReABAPoBBAg3EEY!16s%2Fg%2F1yfdpry4z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+3+Yogyakarta/@-7.8068548,110.3323919,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57f3a37ea0f3:0xb2e0b9cb91c1eb9f!8m2!3d-7.8068548!4d110.3504163!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhiVXhtUlZKbkVBReABAPoBBAg3EEY!16s%2Fg%2F1yfdpry4z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4303,25 +4208,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.7</v>
+        <v>-7.819648</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.819648</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.379629</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Pakel/@-7.8196478,110.3616049,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a570a14b29aeb:0xef9ce99a3552b200!8m2!3d-7.8196478!4d110.3796293!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSYVgzTXlOMUJSRUFF4AEA-gEECAAQJw!16s%2Fg%2F1hm40z91m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Pakel/@-7.8196478,110.3616049,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a570a14b29aeb:0xef9ce99a3552b200!8m2!3d-7.8196478!4d110.3796293!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSYVgzTXlOMUJSRUFF4AEA-gEECAAQJw!16s%2Fg%2F1hm40z91m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4348,25 +4252,24 @@
           <t>(0274) 371185</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.6</v>
+        <v>-7.827217</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.827217</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.397624</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+4+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%94%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8272173,110.3795998,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a571379f6efe5:0x4684a4703cd95556!8m2!3d-7.8272173!4d110.3976242!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktlRFZEZEV4QkVBReABAPoBBAgAEDw!16s%2Fg%2F1hd_s2nm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+4+Yogyakarta(%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%94%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.8272173,110.3795998,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a571379f6efe5:0x4684a4703cd95556!8m2!3d-7.8272173!4d110.3976242!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktlRFZEZEV4QkVBReABAPoBBAgAEDw!16s%2Fg%2F1hd_s2nm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4393,25 +4296,24 @@
           <t>(0274) 513433</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.5</v>
+        <v>-7.782974</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.782974</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.377284</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BOPKRI+2+Yogyakarta/@-7.782974,110.3592596,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5833208b2dff:0xb690923750b4298!8m2!3d-7.782974!4d110.377284!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkNjV0ZoY1hkblJSQULgAQD6AQQIABA5!16s%2Fg%2F1hdzq61p2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BOPKRI+2+Yogyakarta/@-7.782974,110.3592596,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5833208b2dff:0xb690923750b4298!8m2!3d-7.782974!4d110.377284!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkNjV0ZoY1hkblJSQULgAQD6AQQIABA5!16s%2Fg%2F1hdzq61p2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -4431,22 +4333,21 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>-7.77472</v>
+      </c>
       <c r="G95" t="n">
-        <v>-7.77472</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.357767</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+MUHAMMADIYAH+6/@-7.7747196,110.3397422,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5900431382d9:0xa873062a41a88e90!8m2!3d-7.7747196!4d110.3577666!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11w9l3h6vb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4461,25 +4362,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.8</v>
+        <v>-7.7998</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.7998</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.357651</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Purwodiningratan/@-7.7997995,110.3396268,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578ba7f7602d:0x279ef21c60568d54!8m2!3d-7.7997995!4d110.3576512!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdE5WQXlURkJuRUFF4AEA-gEECFkQGg!16s%2Fg%2F11c1mz8l7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Purwodiningratan/@-7.7997995,110.3396268,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578ba7f7602d:0x279ef21c60568d54!8m2!3d-7.7997995!4d110.3576512!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdE5WQXlURkJuRUFF4AEA-gEECFkQGg!16s%2Fg%2F11c1mz8l7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4506,25 +4406,24 @@
           <t>0821-8008-7076</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.8</v>
+        <v>-7.793904</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.793904</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.382486</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.793904,110.3644616,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXljR1ZVYVVoUkVBReABAPoBBAgAECY!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.793904,110.3644616,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXljR1ZVYVVoUkVBReABAPoBBAgAECY!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4551,25 +4450,24 @@
           <t>(0274) 374687</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.6</v>
+        <v>-7.802459</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.802459</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.359323</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Muallimat+Muhammadiyah/@-7.802459,110.3412986,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578c6a10f219:0x7ba9537d0a8164ef!8m2!3d-7.802459!4d110.359323!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnlNbUZITFdWUkVBReABAPoBBAhAEDA!16s%2Fg%2F1hm4_0j3x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Muallimat+Muhammadiyah/@-7.802459,110.3412986,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578c6a10f219:0x7ba9537d0a8164ef!8m2!3d-7.802459!4d110.359323!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnlNbUZITFdWUkVBReABAPoBBAhAEDA!16s%2Fg%2F1hm4_0j3x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4588,25 +4486,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.9</v>
+        <v>-7.799492</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.799492</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.387198</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KAMPUS+1+SDIT+LUQMAN+AL+HAKIM+2+YOGYAKARTA/@-7.7994916,110.3691731,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5754b17f5367:0x89c741e8ac416e9c!8m2!3d-7.7994916!4d110.3871975!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRkV0ZoTFdkUlJSQULgAQD6AQQIABA1!16s%2Fg%2F11f6nns_h2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KAMPUS+1+SDIT+LUQMAN+AL+HAKIM+2+YOGYAKARTA/@-7.7994916,110.3691731,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5754b17f5367:0x89c741e8ac416e9c!8m2!3d-7.7994916!4d110.3871975!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRkV0ZoTFdkUlJSQULgAQD6AQQIABA1!16s%2Fg%2F11f6nns_h2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4625,25 +4522,24 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.1</v>
+        <v>-7.793401</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.793401</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.36164</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Tsanawiyah+Muhammadiyah+Gedongtengen+Yogyakarta/@-7.7934014,110.3436159,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5826d97b9641:0xe39254e13ce0e4af!8m2!3d-7.7934014!4d110.3616403!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2b0h3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Tsanawiyah+Muhammadiyah+Gedongtengen+Yogyakarta/@-7.7934014,110.3436159,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5826d97b9641:0xe39254e13ce0e4af!8m2!3d-7.7934014!4d110.3616403!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2b0h3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -4663,22 +4559,21 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>-7.800396</v>
+      </c>
       <c r="G101" t="n">
-        <v>-7.800396</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.358092</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampus+Purwo+%7C+TK%E2%80%A2SD%E2%80%A2SMP%E2%80%A2SMA/@-7.7934014,110.3436159,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5700332f3ee3:0x82547538e4dab583!8m2!3d-7.8003958!4d110.3580921!15sChNTTVAgS290YSBZb2d5YWthcnRhkgEQZWR1Y2F0aW9uX2NlbnRlcuABAA!16s%2Fg%2F11vq3959tx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
